--- a/DataGenerator/XLSXS/ProjectileData.xlsx
+++ b/DataGenerator/XLSXS/ProjectileData.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BA172D-FEC3-45C8-BB48-1DFEB9DAD6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트8" sheetId="1" r:id="rId4"/>
+    <sheet name="시트8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -74,31 +83,84 @@
   </si>
   <si>
     <t>SINGLE</t>
+  </si>
+  <si>
+    <t>프리팹 경로</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosionRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectilePrefab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -106,7 +168,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -134,62 +196,54 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -379,26 +433,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.5"/>
-    <col customWidth="1" min="2" max="2" width="18.75"/>
-    <col customWidth="1" min="3" max="3" width="23.25"/>
-    <col customWidth="1" min="4" max="4" width="18.75"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,13 +483,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -442,15 +507,21 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -472,15 +543,17 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>1100002.0</v>
+        <v>1100002</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>18</v>
@@ -492,21 +565,23 @@
         <v>20</v>
       </c>
       <c r="E4" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="2"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -520,7 +595,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -534,10 +609,10 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -548,7 +623,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
@@ -562,7 +637,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
@@ -576,7 +651,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
@@ -590,7 +665,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
@@ -604,7 +679,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
@@ -618,7 +693,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5"/>
@@ -632,7 +707,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
@@ -646,7 +721,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
@@ -660,35 +735,36 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/ProjectileData.xlsx
+++ b/DataGenerator/XLSXS/ProjectileData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BA172D-FEC3-45C8-BB48-1DFEB9DAD6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F049C276-25C5-4000-AE08-624A0755AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -85,35 +85,38 @@
     <t>SINGLE</t>
   </si>
   <si>
-    <t>프리팹 경로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>explosionRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectilePrefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>피격이펙트경로</t>
+  </si>
+  <si>
+    <t>functionIndex</t>
+  </si>
+  <si>
+    <t>splashRange</t>
+  </si>
+  <si>
+    <t>FXPath</t>
+  </si>
+  <si>
+    <t>monsterHitPath</t>
+  </si>
+  <si>
+    <t>funcIndex</t>
+  </si>
+  <si>
+    <t>FARTHEST_TARGET</t>
+  </si>
+  <si>
+    <t>PINGPONG</t>
+  </si>
+  <si>
+    <t>CURRENT_TARGET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -131,12 +134,6 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="3"/>
@@ -145,21 +142,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -172,20 +162,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFB4C6E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -194,8 +172,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,28 +193,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -446,7 +451,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -461,310 +466,414 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1100002</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1100200</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5"/>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>600201</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1100400</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>600401</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1100011</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>630011</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1100013</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>630013</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/ProjectileData.xlsx
+++ b/DataGenerator/XLSXS/ProjectileData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F049C276-25C5-4000-AE08-624A0755AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A6AFB5-DD23-4E1A-B228-D8DA496081AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -451,7 +451,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -692,27 +692,13 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -720,27 +706,13 @@
     </row>
     <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -748,27 +720,13 @@
     </row>
     <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>

--- a/DataGenerator/XLSXS/ProjectileData.xlsx
+++ b/DataGenerator/XLSXS/ProjectileData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A6AFB5-DD23-4E1A-B228-D8DA496081AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C386B2FC-1D6E-4533-8670-8618F6C0C155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>타겟</t>
-  </si>
-  <si>
     <t>날아가는 방식</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -61,55 +55,44 @@
     <t>long</t>
   </si>
   <si>
-    <t>eProjectileTargetType</t>
+    <t>eProjectileRangeType</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>STRAIGHT</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>피격이펙트경로</t>
+  </si>
+  <si>
+    <t>functionIndex</t>
+  </si>
+  <si>
+    <t>splashRange</t>
+  </si>
+  <si>
+    <t>FXPath</t>
+  </si>
+  <si>
+    <t>monsterHitPath</t>
+  </si>
+  <si>
+    <t>funcIndex</t>
+  </si>
+  <si>
+    <t>PINGPONG</t>
   </si>
   <si>
     <t>eProjectilePathType</t>
-  </si>
-  <si>
-    <t>eProjectileRangeType</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>NEAR_TARGET</t>
-  </si>
-  <si>
-    <t>STRAIGHT</t>
-  </si>
-  <si>
-    <t>SINGLE</t>
-  </si>
-  <si>
-    <t>피격이펙트경로</t>
-  </si>
-  <si>
-    <t>functionIndex</t>
-  </si>
-  <si>
-    <t>splashRange</t>
-  </si>
-  <si>
-    <t>FXPath</t>
-  </si>
-  <si>
-    <t>monsterHitPath</t>
-  </si>
-  <si>
-    <t>funcIndex</t>
-  </si>
-  <si>
-    <t>FARTHEST_TARGET</t>
-  </si>
-  <si>
-    <t>PINGPONG</t>
-  </si>
-  <si>
-    <t>CURRENT_TARGET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -127,11 +110,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -451,18 +436,18 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,77 +471,68 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -567,27 +543,20 @@
         <v>1100200</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
         <v>600201</v>
       </c>
       <c r="J4" s="1"/>
@@ -599,59 +568,45 @@
         <v>1100400</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
         <v>600401</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1100011</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1000</v>
       </c>
       <c r="E6" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
         <v>630011</v>
       </c>
       <c r="J6" s="2"/>
@@ -663,27 +618,20 @@
         <v>1100013</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
         <v>630013</v>
       </c>
       <c r="J7" s="2"/>

--- a/DataGenerator/XLSXS/ProjectileData.xlsx
+++ b/DataGenerator/XLSXS/ProjectileData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C386B2FC-1D6E-4533-8670-8618F6C0C155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A60D8A-F875-4248-873E-38CAC9E29DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>날아가는 방식</t>
   </si>
   <si>
-    <t>폭발 범위타입</t>
-  </si>
-  <si>
     <t>관통 수</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>피격이펙트경로</t>
   </si>
   <si>
-    <t>functionIndex</t>
-  </si>
-  <si>
     <t>splashRange</t>
   </si>
   <si>
@@ -85,21 +79,59 @@
     <t>monsterHitPath</t>
   </si>
   <si>
-    <t>funcIndex</t>
-  </si>
-  <si>
     <t>PINGPONG</t>
   </si>
   <si>
+    <t>#투사체 설명</t>
+  </si>
+  <si>
+    <t>투사체 데미지 범위 타입</t>
+  </si>
+  <si>
     <t>eProjectilePathType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K 평타</t>
+  </si>
+  <si>
+    <t>M 평타</t>
+  </si>
+  <si>
+    <t>K 스킬</t>
+  </si>
+  <si>
+    <t>M 스킬</t>
+  </si>
+  <si>
+    <t>전투력측정기R 평타</t>
+  </si>
+  <si>
+    <t>공격봇A1 평타</t>
+  </si>
+  <si>
+    <t>공격봇A1 스킬</t>
+  </si>
+  <si>
+    <t>지원봇S1 평타</t>
+  </si>
+  <si>
+    <t>그레이스 평타</t>
+  </si>
+  <si>
+    <t>그레이스 스킬</t>
+  </si>
+  <si>
+    <t>SURROUND</t>
+  </si>
+  <si>
+    <t>엠마 평타</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -124,12 +156,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -203,17 +229,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,7 +462,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -444,293 +470,417 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
+      <c r="H1" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>1100200</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>600201</v>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>1100400</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
-        <v>600401</v>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1100011</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="A6" s="6">
+        <v>1100210</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6">
         <v>1000</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <v>630011</v>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1100013</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6">
+        <v>1100410</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>630013</v>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="6">
+        <v>1110100</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="6">
+        <v>1110300</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="6">
+        <v>1110310</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1110400</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>1100600</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+    <row r="13" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1100610</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1100800</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>

--- a/DataGenerator/XLSXS/ProjectileData.xlsx
+++ b/DataGenerator/XLSXS/ProjectileData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A60D8A-F875-4248-873E-38CAC9E29DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC9E90E-0A19-4F58-8F60-0CC7B7C4755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
